--- a/Code/Results/Cases/Case_2_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.151573354868987</v>
+        <v>0.6409899155710832</v>
       </c>
       <c r="C2">
-        <v>0.105605437928098</v>
+        <v>0.1702344879934543</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07506168024299953</v>
+        <v>0.1166335526239486</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008261859601490646</v>
+        <v>0.002483308034040507</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9054948177911228</v>
+        <v>0.3259199722913024</v>
       </c>
       <c r="L2">
-        <v>0.2457353305340462</v>
+        <v>0.1941625722818543</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.772440271045468</v>
+        <v>3.896598061147927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002130117218371</v>
+        <v>0.5986403686690664</v>
       </c>
       <c r="C3">
-        <v>0.1067261131673192</v>
+        <v>0.170822735542334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07029768920481771</v>
+        <v>0.1161758985404262</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008300707570622357</v>
+        <v>0.002485766210063481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7882292726485502</v>
+        <v>0.2900583896036153</v>
       </c>
       <c r="L3">
-        <v>0.2167839450204951</v>
+        <v>0.1870998553846164</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.811701278206243</v>
+        <v>3.937184168298302</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9107339246415904</v>
+        <v>0.5728138058209424</v>
       </c>
       <c r="C4">
-        <v>0.1074745539535868</v>
+        <v>0.1712176997421793</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06748550586330282</v>
+        <v>0.1159574664341783</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008325320566589001</v>
+        <v>0.002487355602100291</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7163119227968053</v>
+        <v>0.2680360249202209</v>
       </c>
       <c r="L4">
-        <v>0.1992220106327949</v>
+        <v>0.1828632342665202</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.840083052527959</v>
+        <v>3.964266474408944</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8735648644640719</v>
+        <v>0.5623342598426007</v>
       </c>
       <c r="C5">
-        <v>0.10779462599114</v>
+        <v>0.1713871752353278</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06636647846774224</v>
+        <v>0.1158842047281752</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008335545345292591</v>
+        <v>0.002488023483792933</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6870156784465422</v>
+        <v>0.2590614486809386</v>
       </c>
       <c r="L5">
-        <v>0.1921144202866856</v>
+        <v>0.1811619752809435</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.852683399334126</v>
+        <v>3.975846238703127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8673971012287325</v>
+        <v>0.5605968762783675</v>
       </c>
       <c r="C6">
-        <v>0.1078486815874093</v>
+        <v>0.1714158322684796</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06618225246338838</v>
+        <v>0.1158729915262349</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008337255029455736</v>
+        <v>0.002488135606140981</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6821514084481777</v>
+        <v>0.2575712254433142</v>
       </c>
       <c r="L6">
-        <v>0.1909370350915935</v>
+        <v>0.180881006635687</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.854837013502504</v>
+        <v>3.977801869765756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9102323633572098</v>
+        <v>0.5726722919486349</v>
       </c>
       <c r="C7">
-        <v>0.1074788096359427</v>
+        <v>0.171219950792981</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06747030695571254</v>
+        <v>0.115956414601925</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008325457667798732</v>
+        <v>0.002487364527359759</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7159167936594173</v>
+        <v>0.2679149910999286</v>
       </c>
       <c r="L7">
-        <v>0.1991259628552342</v>
+        <v>0.182840188365887</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.840248848493488</v>
+        <v>3.96442044282152</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.099960400618187</v>
+        <v>0.6263516044737401</v>
       </c>
       <c r="C8">
-        <v>0.105979262154591</v>
+        <v>0.1704303234606179</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07339473089820103</v>
+        <v>0.1164627773236226</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008275098842805754</v>
+        <v>0.002484139032095745</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8650376309015257</v>
+        <v>0.3135558661634832</v>
       </c>
       <c r="L8">
-        <v>0.2357053985421516</v>
+        <v>0.191706651689401</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.785065104968766</v>
+        <v>3.910143242449564</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.475657692773353</v>
+        <v>0.732990974277925</v>
       </c>
       <c r="C9">
-        <v>0.1035221927018704</v>
+        <v>0.16914854717335</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08597741027965711</v>
+        <v>0.1179516435960579</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008182203465910697</v>
+        <v>0.002478446387105329</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.158651456694543</v>
+        <v>0.4030135338434491</v>
       </c>
       <c r="L9">
-        <v>0.3093734156030052</v>
+        <v>0.2098844040383199</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.712701235366495</v>
+        <v>3.82087234488074</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.755062458820817</v>
+        <v>0.8121530423523495</v>
       </c>
       <c r="C10">
-        <v>0.1020189351075373</v>
+        <v>0.1683676344279377</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09591229026380077</v>
+        <v>0.1193473572485111</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008117267778423695</v>
+        <v>0.002474645803309712</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.37588884916002</v>
+        <v>0.4686930233287399</v>
       </c>
       <c r="L10">
-        <v>0.3650295899001321</v>
+        <v>0.2237203555326914</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.684232912015773</v>
+        <v>3.765764031698012</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.883184275587297</v>
+        <v>0.848338212128624</v>
       </c>
       <c r="C11">
-        <v>0.101402380629267</v>
+        <v>0.1680469268237985</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1006061060729913</v>
+        <v>0.1200477665634772</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008088386119150557</v>
+        <v>0.002472998912748034</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.475237921250653</v>
+        <v>0.4985591055364864</v>
       </c>
       <c r="L11">
-        <v>0.390765919828695</v>
+        <v>0.2301189182709606</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.677322387928541</v>
+        <v>3.742972317160564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.931871869552054</v>
+        <v>0.8620650490538821</v>
       </c>
       <c r="C12">
-        <v>0.1011787435636933</v>
+        <v>0.1679304194312579</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1024107635728804</v>
+        <v>0.1203223982203809</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008077538709416216</v>
+        <v>0.002472387010935562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.512951509949829</v>
+        <v>0.5098664776598127</v>
       </c>
       <c r="L12">
-        <v>0.4005791724206489</v>
+        <v>0.2325568667579319</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.675635253244963</v>
+        <v>3.734669447438648</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.921378132304085</v>
+        <v>0.8591076597920733</v>
       </c>
       <c r="C13">
-        <v>0.1012264674967014</v>
+        <v>0.1679552922279086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1020208524701935</v>
+        <v>0.1202628334828333</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008079871001501372</v>
+        <v>0.00247251827368366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.504824833970986</v>
+        <v>0.507431342404999</v>
       </c>
       <c r="L13">
-        <v>0.3984625896789282</v>
+        <v>0.2320311471968637</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.675956234976326</v>
+        <v>3.736443031370072</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.887186268753169</v>
+        <v>0.8494670443727159</v>
       </c>
       <c r="C14">
-        <v>0.1013837837116753</v>
+        <v>0.1680372428958634</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1007540182175966</v>
+        <v>0.1200701723391511</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008087491934189603</v>
+        <v>0.002472948336385006</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.478338692789748</v>
+        <v>0.4994894184462453</v>
       </c>
       <c r="L14">
-        <v>0.3915718659586958</v>
+        <v>0.2303191905547237</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.677164586519496</v>
+        <v>3.742282662133505</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.866265734102626</v>
+        <v>0.8435650322641948</v>
       </c>
       <c r="C15">
-        <v>0.1014814307830036</v>
+        <v>0.168088082234064</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0999816552668662</v>
+        <v>0.1199533857522539</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008092171465957569</v>
+        <v>0.002473213289407081</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.462127692733503</v>
+        <v>0.4946244491161451</v>
       </c>
       <c r="L15">
-        <v>0.3873601116262364</v>
+        <v>0.2292725125061423</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.67802770830545</v>
+        <v>3.745902312650713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.746711922677889</v>
+        <v>0.8097916954943116</v>
       </c>
       <c r="C16">
-        <v>0.1020605960168766</v>
+        <v>0.1683892859022933</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09560922661775706</v>
+        <v>0.1193029003703145</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008119168068606948</v>
+        <v>0.002474755077243134</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.369408134330968</v>
+        <v>0.4667409181657831</v>
       </c>
       <c r="L16">
-        <v>0.3633566885157506</v>
+        <v>0.2233042909294483</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.684811199748879</v>
+        <v>3.76729938211659</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.673647135945458</v>
+        <v>0.7891168898499927</v>
       </c>
       <c r="C17">
-        <v>0.10243324076378</v>
+        <v>0.1685828892476664</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09297302116896589</v>
+        <v>0.1189206115298163</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008135894550713772</v>
+        <v>0.00247572188125308</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.312673933890778</v>
+        <v>0.4496318403745079</v>
       </c>
       <c r="L17">
-        <v>0.3487435016909757</v>
+        <v>0.2196696946258072</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.690561773008909</v>
+        <v>3.781009341483525</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.631716586065949</v>
+        <v>0.7772417038354433</v>
       </c>
       <c r="C18">
-        <v>0.1026538988536849</v>
+        <v>0.1686974969004567</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09147302358104525</v>
+        <v>0.1187068944872571</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008145577435948039</v>
+        <v>0.002476285684084049</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.280090433721369</v>
+        <v>0.4397900696295665</v>
       </c>
       <c r="L18">
-        <v>0.3403772621018675</v>
+        <v>0.217589013463666</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.694433932374238</v>
+        <v>3.789109278176156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.617535128431882</v>
+        <v>0.7732238110849039</v>
       </c>
       <c r="C19">
-        <v>0.1027296910419366</v>
+        <v>0.1687368605031025</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0909678832922296</v>
+        <v>0.1186355929610379</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008148866738011224</v>
+        <v>0.00247647790599887</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.269066070012002</v>
+        <v>0.4364576465288508</v>
       </c>
       <c r="L19">
-        <v>0.3375510593799902</v>
+        <v>0.2168862234078546</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.695840153116734</v>
+        <v>3.791888577488393</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.681415070294207</v>
+        <v>0.791316064467054</v>
       </c>
       <c r="C20">
-        <v>0.1023929165757451</v>
+        <v>0.16856194346542</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09325195002965714</v>
+        <v>0.1189606688497555</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008134107581710043</v>
+        <v>0.002475618164364656</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.318708250118817</v>
+        <v>0.4514532469434016</v>
       </c>
       <c r="L20">
-        <v>0.3502950250233994</v>
+        <v>0.2200555855110906</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.689890753341984</v>
+        <v>3.779527707722849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.897224415554092</v>
+        <v>0.852298073044409</v>
       </c>
       <c r="C21">
-        <v>0.1013373077439681</v>
+        <v>0.1680130382153422</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1011253618853587</v>
+        <v>0.1201265065504131</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008085251096617219</v>
+        <v>0.002472821698390287</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.48611567271081</v>
+        <v>0.5018222199605873</v>
       </c>
       <c r="L21">
-        <v>0.3935939463860478</v>
+        <v>0.2308216285580471</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.676783921590214</v>
+        <v>3.740558520024933</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.039275468632809</v>
+        <v>0.8922946410729651</v>
       </c>
       <c r="C22">
-        <v>0.1007048386400982</v>
+        <v>0.1676830642150691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1064308003246452</v>
+        <v>0.1209432426425288</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.000805383928560804</v>
+        <v>0.002471062448535537</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.596072432991235</v>
+        <v>0.534727794716332</v>
       </c>
       <c r="L22">
-        <v>0.4222893263308123</v>
+        <v>0.237944973361806</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.673668747144006</v>
+        <v>3.717001086326889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.96335954367288</v>
+        <v>0.8709350265199305</v>
       </c>
       <c r="C23">
-        <v>0.1010370870947312</v>
+        <v>0.1678565545945148</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.103583829791976</v>
+        <v>0.1205023268452656</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008070558692447579</v>
+        <v>0.002471995152206666</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.537330648973239</v>
+        <v>0.5171668866162236</v>
       </c>
       <c r="L23">
-        <v>0.4069351629860449</v>
+        <v>0.2341351651299988</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.674811199252076</v>
+        <v>3.729399133108245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.677902954215256</v>
+        <v>0.7903217831960205</v>
       </c>
       <c r="C24">
-        <v>0.1024111271574881</v>
+        <v>0.1685714027635754</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09312579788564435</v>
+        <v>0.1189425400399671</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008134915262489252</v>
+        <v>0.002475665030126361</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.315980031869174</v>
+        <v>0.4506298062299265</v>
       </c>
       <c r="L24">
-        <v>0.3495934726194179</v>
+        <v>0.2198810965250573</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.690192362701339</v>
+        <v>3.78019687562815</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.373516914944787</v>
+        <v>0.7039975272757601</v>
       </c>
       <c r="C25">
-        <v>0.1041344246661602</v>
+        <v>0.1694669355625926</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08246000090873196</v>
+        <v>0.117495825083715</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.000820673260938283</v>
+        <v>0.002479919075965318</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.079015323495639</v>
+        <v>0.3788194696261087</v>
       </c>
       <c r="L25">
-        <v>0.2892020613889201</v>
+        <v>0.2048823245726936</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.728157427426183</v>
+        <v>3.843183263851145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6409899155710832</v>
+        <v>1.151573354869072</v>
       </c>
       <c r="C2">
-        <v>0.1702344879934543</v>
+        <v>0.1056054379283182</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1166335526239486</v>
+        <v>0.07506168024298887</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002483308034040507</v>
+        <v>0.0008261859600880994</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3259199722913024</v>
+        <v>0.9054948177909523</v>
       </c>
       <c r="L2">
-        <v>0.1941625722818543</v>
+        <v>0.2457353305339467</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.896598061147927</v>
+        <v>1.772440271045454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5986403686690664</v>
+        <v>1.002130117218456</v>
       </c>
       <c r="C3">
-        <v>0.170822735542334</v>
+        <v>0.1067261131677206</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1161758985404262</v>
+        <v>0.07029768920482482</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002485766210063481</v>
+        <v>0.0008300707570623733</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2900583896036153</v>
+        <v>0.7882292726485502</v>
       </c>
       <c r="L3">
-        <v>0.1870998553846164</v>
+        <v>0.216783945020552</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.937184168298302</v>
+        <v>1.811701278206257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5728138058209424</v>
+        <v>0.9107339246415336</v>
       </c>
       <c r="C4">
-        <v>0.1712176997421793</v>
+        <v>0.1074745539535833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1159574664341783</v>
+        <v>0.06748550586332058</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002487355602100291</v>
+        <v>0.0008325320566400265</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2680360249202209</v>
+        <v>0.7163119227968053</v>
       </c>
       <c r="L4">
-        <v>0.1828632342665202</v>
+        <v>0.1992220106328375</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.964266474408944</v>
+        <v>1.84008305252793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5623342598426007</v>
+        <v>0.8735648644639582</v>
       </c>
       <c r="C5">
-        <v>0.1713871752353278</v>
+        <v>0.1077946259911258</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1158842047281752</v>
+        <v>0.06636647846774935</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002488023483792933</v>
+        <v>0.0008335545345276071</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2590614486809386</v>
+        <v>0.6870156784465422</v>
       </c>
       <c r="L5">
-        <v>0.1811619752809435</v>
+        <v>0.1921144202866287</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.975846238703127</v>
+        <v>1.852683399334055</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5605968762783675</v>
+        <v>0.8673971012289599</v>
       </c>
       <c r="C6">
-        <v>0.1714158322684796</v>
+        <v>0.1078486815877824</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1158729915262349</v>
+        <v>0.06618225246343812</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002488135606140981</v>
+        <v>0.00083372550286965</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2575712254433142</v>
+        <v>0.6821514084481635</v>
       </c>
       <c r="L6">
-        <v>0.180881006635687</v>
+        <v>0.1909370350915935</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.977801869765756</v>
+        <v>1.854837013502475</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5726722919486349</v>
+        <v>0.9102323633573519</v>
       </c>
       <c r="C7">
-        <v>0.171219950792981</v>
+        <v>0.1074788096356478</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.115956414601925</v>
+        <v>0.06747030695571965</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002487364527359759</v>
+        <v>0.000832545766899233</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2679149910999286</v>
+        <v>0.7159167936595026</v>
       </c>
       <c r="L7">
-        <v>0.182840188365887</v>
+        <v>0.1991259628550637</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.96442044282152</v>
+        <v>1.840248848493431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6263516044737401</v>
+        <v>1.099960400618215</v>
       </c>
       <c r="C8">
-        <v>0.1704303234606179</v>
+        <v>0.1059792621542783</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1164627773236226</v>
+        <v>0.07339473089820103</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002484139032095745</v>
+        <v>0.0008275098842812043</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3135558661634832</v>
+        <v>0.8650376309013836</v>
       </c>
       <c r="L8">
-        <v>0.191706651689401</v>
+        <v>0.2357053985419526</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.910143242449564</v>
+        <v>1.785065104968751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.732990974277925</v>
+        <v>1.475657692773353</v>
       </c>
       <c r="C9">
-        <v>0.16914854717335</v>
+        <v>0.1035221927019521</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1179516435960579</v>
+        <v>0.08597741027968553</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002478446387105329</v>
+        <v>0.0008182203466302379</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4030135338434491</v>
+        <v>1.158651456694486</v>
       </c>
       <c r="L9">
-        <v>0.2098844040383199</v>
+        <v>0.3093734156028916</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.82087234488074</v>
+        <v>1.712701235366424</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8121530423523495</v>
+        <v>1.755062458820817</v>
       </c>
       <c r="C10">
-        <v>0.1683676344279377</v>
+        <v>0.1020189351076155</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1193473572485111</v>
+        <v>0.09591229026381498</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002474645803309712</v>
+        <v>0.000811726777825861</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4686930233287399</v>
+        <v>1.375888849159992</v>
       </c>
       <c r="L10">
-        <v>0.2237203555326914</v>
+        <v>0.3650295899003027</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.765764031698012</v>
+        <v>1.684232912015716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.848338212128624</v>
+        <v>1.883184275587297</v>
       </c>
       <c r="C11">
-        <v>0.1680469268237985</v>
+        <v>0.1014023806291888</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1200477665634772</v>
+        <v>0.1006061060729877</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002472998912748034</v>
+        <v>0.0008088386118783769</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4985591055364864</v>
+        <v>1.475237921250738</v>
       </c>
       <c r="L11">
-        <v>0.2301189182709606</v>
+        <v>0.3907659198287377</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.742972317160564</v>
+        <v>1.677322387928569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8620650490538821</v>
+        <v>1.931871869552111</v>
       </c>
       <c r="C12">
-        <v>0.1679304194312579</v>
+        <v>0.1011787435639278</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1203223982203809</v>
+        <v>0.1024107635728662</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002472387010935562</v>
+        <v>0.000807753870942092</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5098664776598127</v>
+        <v>1.512951509949943</v>
       </c>
       <c r="L12">
-        <v>0.2325568667579319</v>
+        <v>0.4005791724206347</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.734669447438648</v>
+        <v>1.675635253245105</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8591076597920733</v>
+        <v>1.921378132304085</v>
       </c>
       <c r="C13">
-        <v>0.1679552922279086</v>
+        <v>0.1012264674968009</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1202628334828333</v>
+        <v>0.1020208524701829</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00247251827368366</v>
+        <v>0.0008079871001287865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.507431342404999</v>
+        <v>1.504824833970986</v>
       </c>
       <c r="L13">
-        <v>0.2320311471968637</v>
+        <v>0.3984625896788572</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.736443031370072</v>
+        <v>1.675956234976297</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8494670443727159</v>
+        <v>1.88718626875314</v>
       </c>
       <c r="C14">
-        <v>0.1680372428958634</v>
+        <v>0.1013837837119169</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1200701723391511</v>
+        <v>0.100754018217593</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002472948336385006</v>
+        <v>0.0008087491934406652</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4994894184462453</v>
+        <v>1.478338692789862</v>
       </c>
       <c r="L14">
-        <v>0.2303191905547237</v>
+        <v>0.3915718659587384</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.742282662133505</v>
+        <v>1.677164586519552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8435650322641948</v>
+        <v>1.866265734102768</v>
       </c>
       <c r="C15">
-        <v>0.168088082234064</v>
+        <v>0.1014814307827692</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1199533857522539</v>
+        <v>0.0999816552668733</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002473213289407081</v>
+        <v>0.0008092171465972771</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4946244491161451</v>
+        <v>1.462127692733475</v>
       </c>
       <c r="L15">
-        <v>0.2292725125061423</v>
+        <v>0.3873601116263075</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.745902312650713</v>
+        <v>1.678027708305393</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8097916954943116</v>
+        <v>1.746711922677775</v>
       </c>
       <c r="C16">
-        <v>0.1683892859022933</v>
+        <v>0.1020605960166279</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1193029003703145</v>
+        <v>0.09560922661775706</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002474755077243134</v>
+        <v>0.0008119168068384709</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4667409181657831</v>
+        <v>1.369408134331081</v>
       </c>
       <c r="L16">
-        <v>0.2233042909294483</v>
+        <v>0.3633566885155091</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.76729938211659</v>
+        <v>1.68481119974885</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7891168898499927</v>
+        <v>1.673647135945458</v>
       </c>
       <c r="C17">
-        <v>0.1685828892476664</v>
+        <v>0.1024332407633182</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1189206115298163</v>
+        <v>0.09297302116899786</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.00247572188125308</v>
+        <v>0.0008135894552312654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4496318403745079</v>
+        <v>1.312673933890721</v>
       </c>
       <c r="L17">
-        <v>0.2196696946258072</v>
+        <v>0.3487435016910325</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.781009341483525</v>
+        <v>1.690561773008852</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7772417038354433</v>
+        <v>1.631716586065949</v>
       </c>
       <c r="C18">
-        <v>0.1686974969004567</v>
+        <v>0.1026538988539301</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1187068944872571</v>
+        <v>0.0914730235810417</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002476285684084049</v>
+        <v>0.0008145577436766054</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4397900696295665</v>
+        <v>1.280090433721313</v>
       </c>
       <c r="L18">
-        <v>0.217589013463666</v>
+        <v>0.3403772621018248</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.789109278176156</v>
+        <v>1.69443393237421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7732238110849039</v>
+        <v>1.617535128431967</v>
       </c>
       <c r="C19">
-        <v>0.1687368605031025</v>
+        <v>0.1027296910417022</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1186355929610379</v>
+        <v>0.09096788329224026</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.00247647790599887</v>
+        <v>0.0008148866737798426</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4364576465288508</v>
+        <v>1.269066070012059</v>
       </c>
       <c r="L19">
-        <v>0.2168862234078546</v>
+        <v>0.3375510593799476</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.791888577488393</v>
+        <v>1.695840153116649</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.791316064467054</v>
+        <v>1.681415070294207</v>
       </c>
       <c r="C20">
-        <v>0.16856194346542</v>
+        <v>0.102392916576143</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1189606688497555</v>
+        <v>0.09325195002965359</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002475618164364656</v>
+        <v>0.0008134107582093792</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4514532469434016</v>
+        <v>1.318708250118817</v>
       </c>
       <c r="L20">
-        <v>0.2200555855110906</v>
+        <v>0.3502950250234704</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.779527707722849</v>
+        <v>1.689890753341956</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.852298073044409</v>
+        <v>1.897224415554035</v>
       </c>
       <c r="C21">
-        <v>0.1680130382153422</v>
+        <v>0.101337307743826</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1201265065504131</v>
+        <v>0.101125361885309</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002472821698390287</v>
+        <v>0.0008085251096045984</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5018222199605873</v>
+        <v>1.48611567271081</v>
       </c>
       <c r="L21">
-        <v>0.2308216285580471</v>
+        <v>0.3935939463860478</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.740558520024933</v>
+        <v>1.676783921590129</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8922946410729651</v>
+        <v>2.039275468632809</v>
       </c>
       <c r="C22">
-        <v>0.1676830642150691</v>
+        <v>0.1007048386400129</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1209432426425288</v>
+        <v>0.1064308003245955</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002471062448535537</v>
+        <v>0.0008053839286182862</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.534727794716332</v>
+        <v>1.596072432991321</v>
       </c>
       <c r="L22">
-        <v>0.237944973361806</v>
+        <v>0.4222893263307697</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.717001086326889</v>
+        <v>1.673668747143921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8709350265199305</v>
+        <v>1.96335954367288</v>
       </c>
       <c r="C23">
-        <v>0.1678565545945148</v>
+        <v>0.101037087094177</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1205023268452656</v>
+        <v>0.1035838297919724</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002471995152206666</v>
+        <v>0.0008070558691882465</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5171668866162236</v>
+        <v>1.537330648973324</v>
       </c>
       <c r="L23">
-        <v>0.2341351651299988</v>
+        <v>0.4069351629860876</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.729399133108245</v>
+        <v>1.674811199252161</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7903217831960205</v>
+        <v>1.677902954215227</v>
       </c>
       <c r="C24">
-        <v>0.1685714027635754</v>
+        <v>0.1024111271577155</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1189425400399671</v>
+        <v>0.09312579788562303</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002475665030126361</v>
+        <v>0.0008134915263055332</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4506298062299265</v>
+        <v>1.315980031869088</v>
       </c>
       <c r="L24">
-        <v>0.2198810965250573</v>
+        <v>0.3495934726193752</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.78019687562815</v>
+        <v>1.690192362701254</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7039975272757601</v>
+        <v>1.373516914944673</v>
       </c>
       <c r="C25">
-        <v>0.1694669355625926</v>
+        <v>0.104134424666416</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.117495825083715</v>
+        <v>0.0824600009087284</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002479919075965318</v>
+        <v>0.0008206732609397185</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3788194696261087</v>
+        <v>1.079015323495412</v>
       </c>
       <c r="L25">
-        <v>0.2048823245726936</v>
+        <v>0.289202061388977</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.843183263851145</v>
+        <v>1.728157427426083</v>
       </c>
     </row>
   </sheetData>
